--- a/biology/Zoologie/Coracine_noire/Coracine_noire.xlsx
+++ b/biology/Zoologie/Coracine_noire/Coracine_noire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Querula purpurata
 La Coracine noire (Querula purpurata) est une espèce de passereaux de la famille des Cotingidae. C'est la seule espèce du genre Querula. D'après Alan P. Peterson, c'est une espèce monotypique.
@@ -512,7 +524,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est présente du Nicaragua à l'Amazonie (Guyane à l'est, la Bolivie au  sud, le Pérou à l'ouest). 
 La coracine noire habite les forêts humides de plaine des pays où elle est présente.
